--- a/f_factor/Cs8_0.1mfr/mfr_0.1.xlsx
+++ b/f_factor/Cs8_0.1mfr/mfr_0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\f_factor\Cs8_0.1mfr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC5257-5FBD-4B09-B172-D940DF70137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E0BE4D-9107-40F6-8A04-468787197FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1140" windowWidth="17895" windowHeight="14160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFD_Results" sheetId="5" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFEE2B2-17DA-4AD3-88B9-B708B9A84CA6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6310,7 +6310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1D426B-F785-459C-91B8-7E53AA1CE1E5}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
